--- a/Prices/Монитор----Nov-21--4.xlsx
+++ b/Prices/Монитор----Nov-21--4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="16095" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -595,8 +595,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,17 +655,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -703,7 +708,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -737,6 +742,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -771,9 +777,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -946,14 +953,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L86"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1049,7 +1058,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1113,7 +1122,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1241,7 +1250,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1273,7 +1282,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1369,7 +1378,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1401,7 +1410,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1465,7 +1474,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1497,7 +1506,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1529,7 +1538,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1561,7 +1570,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1593,7 +1602,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1625,7 +1634,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1657,7 +1666,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1721,7 +1730,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1785,7 +1794,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1817,7 +1826,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1849,7 +1858,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1881,7 +1890,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1913,7 +1922,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1945,7 +1954,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1977,7 +1986,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2009,7 +2018,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2041,7 +2050,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2073,7 +2082,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2102,7 +2111,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2166,7 +2175,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2230,7 +2239,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2262,7 +2271,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2294,7 +2303,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2326,7 +2335,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2355,7 +2364,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2387,7 +2396,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2419,7 +2428,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2451,7 +2460,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2515,7 +2524,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2605,7 +2614,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2634,7 +2643,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2663,7 +2672,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2692,7 +2701,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2750,7 +2759,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2782,7 +2791,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2814,7 +2823,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2846,7 +2855,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2878,7 +2887,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2910,7 +2919,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2942,7 +2951,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2974,7 +2983,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3006,7 +3015,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3038,7 +3047,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3134,7 +3143,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3166,7 +3175,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3198,7 +3207,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3230,7 +3239,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3259,7 +3268,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3323,7 +3332,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3355,7 +3364,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3387,7 +3396,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3419,7 +3428,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3451,7 +3460,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3483,7 +3492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3515,7 +3524,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3547,7 +3556,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3579,7 +3588,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3611,7 +3620,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3643,7 +3652,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
